--- a/biology/Histoire de la zoologie et de la botanique/Société_entomologique_américaine/Société_entomologique_américaine.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_entomologique_américaine/Société_entomologique_américaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_entomologique_am%C3%A9ricaine</t>
+          <t>Société_entomologique_américaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La Société entomologique américaine (en anglais American Entomological Society) est une société savante consacrée à l’entomologie du nouveau monde. Elle a été fondée sous le nom de Société entomologique de Philadelphie (Entomological Society of Philadelphia) le 1er mars 1859 et commence à faire paraître une revue dès 1861. Elle change de nom en février 1867 et, en 1875, installe son quartier général dans l’Académie des sciences naturelles. 
 La Société fait aujourd'hui paraître trois publications consacrées à la taxinomie, la morphologie et l'écologie :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_entomologique_am%C3%A9ricaine</t>
+          <t>Société_entomologique_américaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Partie historique du site officiel de la Société entomologique américaine</t>
         </is>
